--- a/biology/Botanique/Montrichardia_arborescens/Montrichardia_arborescens.xlsx
+++ b/biology/Botanique/Montrichardia_arborescens/Montrichardia_arborescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Montrichardia arborescens est une espèce de plantes à fleurs de la famille des Araceae d'origine néotropicale.
-Il est connu en Guyane sous les noms de Moucou moucou (Créole), Arum du pays (Français, désuet)[4], Mukumuku (Wayãpi), Ten tinivui (Palikur), Aninga (Portugais)[5], et aux Antilles Malanga-gratter[6].
-Ailleurs, on l'appelle  Mokko-mokko ou Moko-moko au Suriname[7], Aninga-uba, Aninga, Imbe da praia au Brésil, Aninga, Arracacho, Chupaya en Colombie, Boroboro, Bayo, Radis[8], Mono-moco, Mucumucu au Venezuela, Fruta del diablo au Paraguay, Guembé tayá en Argentine et Guacamay au Salvador[9], Yautia Madera à Porto Rico.
+Il est connu en Guyane sous les noms de Moucou moucou (Créole), Arum du pays (Français, désuet), Mukumuku (Wayãpi), Ten tinivui (Palikur), Aninga (Portugais), et aux Antilles Malanga-gratter.
+Ailleurs, on l'appelle  Mokko-mokko ou Moko-moko au Suriname, Aninga-uba, Aninga, Imbe da praia au Brésil, Aninga, Arracacho, Chupaya en Colombie, Boroboro, Bayo, Radis, Mono-moco, Mucumucu au Venezuela, Fruta del diablo au Paraguay, Guembé tayá en Argentine et Guacamay au Salvador, Yautia Madera à Porto Rico.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Montrichardia arborescens est une plante herbacée, rhizomateuse, robuste (parfois réduite dans toutes ses parties), à grandes tiges spongieuses souvent armés d'aiguillons charnus recourbés, haute de 1 à 3 m.
 Les entre-nœuds sont assez courts dans la partie supérieure (1 cm de long pour 1,5-2 cm de diamètre), et souvent beaucoup plus épais à la base.
@@ -530,7 +544,7 @@
 Les fleurs mâles sont composées de 4 à 7 étamines longues de 4 mm pour 2 mm de large.
 Le pistil est long de 3,6 mm pour 2,7 mm de diamètre, contient un ovule long de 0,5 mm.
 Le spadice fructifère est composé uniquement de la partie femelle, long de 10-13 cm pour 7-9 cm de diamètre.
-Chaque fruit de l'infrutescence est long de 3 cm pour 2,5 cm de diamètre, et renferme 1 grosse graine, longue de 2,4 cm pour 2,2 cm de diamètre, devenant vert noir à maturité[10],[11],[7].
+Chaque fruit de l'infrutescence est long de 3 cm pour 2,5 cm de diamètre, et renferme 1 grosse graine, longue de 2,4 cm pour 2,2 cm de diamètre, devenant vert noir à maturité.
 </t>
         </is>
       </c>
